--- a/Olah Data FTS.xlsx
+++ b/Olah Data FTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanief/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanief/Documents/Politeknik Statistika STIS/Semester 6/UAS/DATMIN/MATERI/code dll/lupil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91AA7F-FB67-884C-9B3C-91B70962CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE30010E-EAF8-9946-AC27-83BCBE9A2AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>Periode</t>
   </si>
   <si>
-    <t>RAMALAN</t>
+    <t>Data Inflasi (%)</t>
   </si>
   <si>
-    <t>Data Inflasi (%)</t>
+    <t>RAMALAN (%)</t>
   </si>
 </sst>
 </file>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
